--- a/dependencies/bi/taylorella/te_92-0972/script_dependents/RemoveFromAnalysis.xlsx
+++ b/dependencies/bi/taylorella/te_92-0972/script_dependents/RemoveFromAnalysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/suis3/script_dependents/python/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\bi\taylorella\vsnp\te_92-0972\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,11 +14,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>13-0389_zc</t>
+  </si>
+  <si>
+    <t>14-137-Taylorella_zc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,6 +76,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,15 +347,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>